--- a/Day 1.xlsx
+++ b/Day 1.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db73b0b2ebbdde70/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{8E3870AC-CD15-451C-B602-4DBD4F73E9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EA085AC-10A4-4DD2-92A6-6B5C512E23F0}"/>
+  <xr:revisionPtr revIDLastSave="240" documentId="8_{8E3870AC-CD15-451C-B602-4DBD4F73E9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2DDA972-984B-4FC1-AAD4-CB822508882C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C07C194C-2FE2-46FC-9655-8513C5CF274E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{C07C194C-2FE2-46FC-9655-8513C5CF274E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,8 +34,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="108">
   <si>
     <t>Release Version:</t>
   </si>
@@ -151,13 +155,223 @@
   </si>
   <si>
     <t>Verify that the admin dashboard has complete details</t>
+  </si>
+  <si>
+    <t>1.Launch the browser</t>
+  </si>
+  <si>
+    <t>2.Open the url:https://studenthostel.neohire.io/</t>
+  </si>
+  <si>
+    <t>6.Click on admin dashboard</t>
+  </si>
+  <si>
+    <t>7.Click "Full details" option under "Student"</t>
+  </si>
+  <si>
+    <t>8.Click "See All" option under "Total Rooms"</t>
+  </si>
+  <si>
+    <t>9.Click "See All" option under "Total Courses"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username: admin </t>
+  </si>
+  <si>
+    <t>It should navigate to the dashboard page</t>
+  </si>
+  <si>
+    <t>It should list all the details under the Students</t>
+  </si>
+  <si>
+    <t>It should list all the details under Total Rooms</t>
+  </si>
+  <si>
+    <t>It should list all the details under Total Courses</t>
+  </si>
+  <si>
+    <t>Verify that Rooms menu has add rooms and manage</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>4.Enter the valid username and invalid password</t>
+  </si>
+  <si>
+    <t>7.Click "Rooms" in admin dashboard.</t>
+  </si>
+  <si>
+    <t>8.Click Add Room in "Rooms".</t>
+  </si>
+  <si>
+    <t>9.Click Manage Room in "Rooms".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username:admin </t>
+  </si>
+  <si>
+    <t>"Rooms" should have "Add Rooms" and \</t>
+  </si>
+  <si>
+    <t>"manage rooms"</t>
+  </si>
+  <si>
+    <t>Verify that courses menu has add courses and manage</t>
+  </si>
+  <si>
+    <t>courses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Courses should have Add Courses and Manage </t>
+  </si>
+  <si>
+    <t>courses inside it.</t>
+  </si>
+  <si>
+    <t>7.Click Courses in admin dashboard</t>
+  </si>
+  <si>
+    <t>8.Click add courses under "Courses"</t>
+  </si>
+  <si>
+    <t>9.Click manage courses under "Courses"</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify if registration form is displayed if Add Courses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration form should be displayed when Add </t>
+  </si>
+  <si>
+    <t>is selected</t>
+  </si>
+  <si>
+    <t>Courses is clicked.</t>
+  </si>
+  <si>
+    <t>TC_006</t>
+  </si>
+  <si>
+    <t>Verify if list of courses selected by admin is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of courses should be displayed when </t>
+  </si>
+  <si>
+    <t>if Manage Courses is selected</t>
+  </si>
+  <si>
+    <t>Manage Courses is clicked.</t>
+  </si>
+  <si>
+    <t>Verify if registration form is displayed if Add Rooms</t>
+  </si>
+  <si>
+    <t>is selected.</t>
+  </si>
+  <si>
+    <t>rooms is clicked.</t>
+  </si>
+  <si>
+    <t>Verify if list of rooms selected by admin is displayed</t>
+  </si>
+  <si>
+    <t>List of rooms should be displayed when</t>
+  </si>
+  <si>
+    <t>if manage rooms is selected</t>
+  </si>
+  <si>
+    <t>manage rooms is clicked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify if admin is able to register students </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration form should be displayed and admin </t>
+  </si>
+  <si>
+    <t>to a particular type of room and fee details,</t>
+  </si>
+  <si>
+    <t>should be able to add students.</t>
+  </si>
+  <si>
+    <t>food options,students complete information, etc</t>
+  </si>
+  <si>
+    <t>to captured in room.</t>
+  </si>
+  <si>
+    <t>6.Click on Admin dashboard.</t>
+  </si>
+  <si>
+    <t>7.Click on Student Hostel Registration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that student data is displayed and admin should </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should be display the students list and if cross is </t>
+  </si>
+  <si>
+    <t>be able to delete data's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given under actions ,admin shoule be able to delete </t>
+  </si>
+  <si>
+    <t>it.</t>
+  </si>
+  <si>
+    <t>6.Click Manage Students</t>
+  </si>
+  <si>
+    <t>Verify that admin can access User logs page</t>
+  </si>
+  <si>
+    <t>Admin should be able to access User logs .</t>
+  </si>
+  <si>
+    <t>7.Click on user logs .</t>
+  </si>
+  <si>
+    <t>Verify if admin is able to view the user log details</t>
+  </si>
+  <si>
+    <t>Admin should be able to view all the user details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that users can access the features </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users should be able to access features such </t>
+  </si>
+  <si>
+    <t xml:space="preserve">such as Book hostel,Book Rooms,Profile </t>
+  </si>
+  <si>
+    <t>as book hostel.book rooms,profile updations,</t>
+  </si>
+  <si>
+    <t>updations,change password option,Access logs</t>
+  </si>
+  <si>
+    <t>3.Click on the user login option</t>
+  </si>
+  <si>
+    <t>change password option,Access logs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +383,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,12 +415,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -215,6 +437,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C03B1C-9A90-410D-A994-DECE97E4F623}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D43" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -749,10 +975,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D0BD12-0FD4-4A2B-A5BF-487EF171D603}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -907,7 +1133,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>21</v>
       </c>
@@ -915,22 +1141,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -953,7 +1179,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>21</v>
       </c>
@@ -961,51 +1187,4717 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59664AF4-CBD5-433E-BC84-E2EF7C943E06}">
+  <dimension ref="A1:AA63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A44" zoomScale="109" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="48.109375" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="42.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+      <c r="AA61" s="3"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A419D120-D93B-4FA6-8CEE-58AD0A1EEE83}">
+  <dimension ref="A1:AA63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" zoomScale="114" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="45.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+      <c r="AA61" s="3"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6C61B0-DEDF-451D-BA43-FEFEC836DB6E}">
+  <dimension ref="A1:AA35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="AA28" sqref="AA28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="43.44140625" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39AF6502-D818-4ADB-9AC7-7024A5A7BADE}">
+  <dimension ref="A1:AA34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="AA28" sqref="AA28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="42.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8183802-0436-471B-A611-820F202A211D}">
+  <dimension ref="A1:AA45"/>
+  <sheetViews>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection activeCell="AA38" sqref="AA38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="43.44140625" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8321D9-BCDA-4F04-81F6-80308855D7DC}">
+  <dimension ref="A1:AA21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="43.44140625" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="38.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
